--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,276 +518,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_0</t>
+          <t>model_12_5_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9259989679760565</v>
+        <v>0.9452851570346646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7073937546849313</v>
+        <v>0.6874607407731951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7373098489134203</v>
+        <v>0.7562110000974103</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.444385225472453</v>
+        <v>0.9562878173996451</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6385048365830964</v>
+        <v>0.921363701105245</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4948452418875309</v>
+        <v>0.3658784068478836</v>
       </c>
       <c r="H2" t="n">
-        <v>1.956659309749737</v>
+        <v>2.089951465560607</v>
       </c>
       <c r="I2" t="n">
-        <v>1.81919786447053</v>
+        <v>0.7165842306809362</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9126975827801056</v>
+        <v>0.546092905599731</v>
       </c>
       <c r="K2" t="n">
-        <v>1.365947452492958</v>
+        <v>0.6313385681403335</v>
       </c>
       <c r="L2" t="n">
-        <v>1.188841078193406</v>
+        <v>0.8889694374839107</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7034523735744523</v>
+        <v>0.6048788365018928</v>
       </c>
       <c r="N2" t="n">
-        <v>1.039467217079437</v>
+        <v>1.029181249581512</v>
       </c>
       <c r="O2" t="n">
-        <v>0.733399797464677</v>
+        <v>0.6306297808435866</v>
       </c>
       <c r="P2" t="n">
-        <v>139.4070204158956</v>
+        <v>140.0109084450115</v>
       </c>
       <c r="Q2" t="n">
-        <v>223.5094523318014</v>
+        <v>224.1133403609173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_1</t>
+          <t>model_12_5_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9272682640031613</v>
+        <v>0.9458206739679796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7049875884572473</v>
+        <v>0.6870406628782313</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7444700099985742</v>
+        <v>0.6968655993997701</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.546862537178596</v>
+        <v>0.9562014228675083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6364975745140533</v>
+        <v>0.9104329541171079</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4863574535097108</v>
+        <v>0.3622974026489774</v>
       </c>
       <c r="H3" t="n">
-        <v>1.972749354393637</v>
+        <v>2.09276052837851</v>
       </c>
       <c r="I3" t="n">
-        <v>1.76961187998844</v>
+        <v>0.8910218727417447</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9774523262062623</v>
+        <v>0.5471722257863676</v>
       </c>
       <c r="K3" t="n">
-        <v>1.373532103097351</v>
+        <v>0.719097049264056</v>
       </c>
       <c r="L3" t="n">
-        <v>1.169929394943649</v>
+        <v>0.8427768239223999</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6973933276922792</v>
+        <v>0.6019114574827242</v>
       </c>
       <c r="N3" t="n">
-        <v>1.038790259198314</v>
+        <v>1.028895640550411</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7270828054553456</v>
+        <v>0.6275360743562506</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4416228487624</v>
+        <v>140.0305797003368</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.5440547646682</v>
+        <v>224.1330116162427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_2</t>
+          <t>model_12_5_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9281487026009259</v>
+        <v>0.9436083522572771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7025295861460281</v>
+        <v>0.6867359121038118</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7505904755735208</v>
+        <v>0.8132562913741591</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6432892472564236</v>
+        <v>0.956931540807362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6340434144334782</v>
+        <v>0.9323070163750328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.480469956552412</v>
+        <v>0.3770912081152499</v>
       </c>
       <c r="H4" t="n">
-        <v>1.98918602716682</v>
+        <v>2.094798398210302</v>
       </c>
       <c r="I4" t="n">
-        <v>1.727226058299075</v>
+        <v>0.5489074438699957</v>
       </c>
       <c r="J4" t="n">
-        <v>1.038383734013126</v>
+        <v>0.5380509190135971</v>
       </c>
       <c r="K4" t="n">
-        <v>1.38280540478799</v>
+        <v>0.5434791814417963</v>
       </c>
       <c r="L4" t="n">
-        <v>1.15239271719366</v>
+        <v>0.9393771070439899</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6931594019793802</v>
+        <v>0.6140775261440935</v>
       </c>
       <c r="N4" t="n">
-        <v>1.038320691946173</v>
+        <v>1.030075545462785</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7226686327594141</v>
+        <v>0.6402200777477683</v>
       </c>
       <c r="P4" t="n">
-        <v>139.4659811558236</v>
+        <v>139.9505363789092</v>
       </c>
       <c r="Q4" t="n">
-        <v>223.5684130717294</v>
+        <v>224.0529682948151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_3</t>
+          <t>model_12_5_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9287276480330606</v>
+        <v>0.9454404129055303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7000815814613025</v>
+        <v>0.6856664978037459</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7558197626202388</v>
+        <v>0.6357323523052754</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7333582433254413</v>
+        <v>0.956552754783059</v>
       </c>
       <c r="F5" t="n">
-        <v>0.631304530578761</v>
+        <v>0.8995154942693158</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4765985457819283</v>
+        <v>0.3648402101245173</v>
       </c>
       <c r="H5" t="n">
-        <v>2.005555845765604</v>
+        <v>2.101949576559043</v>
       </c>
       <c r="I5" t="n">
-        <v>1.69101188053587</v>
+        <v>1.070714643357892</v>
       </c>
       <c r="J5" t="n">
-        <v>1.095297743894897</v>
+        <v>0.5427830634252211</v>
       </c>
       <c r="K5" t="n">
-        <v>1.39315456517139</v>
+        <v>0.8067488533915567</v>
       </c>
       <c r="L5" t="n">
-        <v>1.136192288456432</v>
+        <v>0.8002441203514609</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6903611705346183</v>
+        <v>0.6040200411613156</v>
       </c>
       <c r="N5" t="n">
-        <v>1.038011921049034</v>
+        <v>1.029098446450384</v>
       </c>
       <c r="O5" t="n">
-        <v>0.719751274808911</v>
+        <v>0.6297344248074095</v>
       </c>
       <c r="P5" t="n">
-        <v>139.4821615311121</v>
+        <v>140.0165916034686</v>
       </c>
       <c r="Q5" t="n">
-        <v>223.5845934470179</v>
+        <v>224.1190235193744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_4</t>
+          <t>model_12_5_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9290747133735083</v>
+        <v>0.9404647133739481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6976877418396914</v>
+        <v>0.684581253903157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7602882184424768</v>
+        <v>0.8671468937153486</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8170080607981767</v>
+        <v>0.9581864156176484</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6284049084077434</v>
+        <v>0.9431483394383271</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4742777182522653</v>
+        <v>0.3981127358031974</v>
       </c>
       <c r="H6" t="n">
-        <v>2.021563462337936</v>
+        <v>2.109206607519369</v>
       </c>
       <c r="I6" t="n">
-        <v>1.660066657596707</v>
+        <v>0.3905034312401244</v>
       </c>
       <c r="J6" t="n">
-        <v>1.148155516780514</v>
+        <v>0.5223738653743756</v>
       </c>
       <c r="K6" t="n">
-        <v>1.404111092169583</v>
+        <v>0.45643864830725</v>
       </c>
       <c r="L6" t="n">
-        <v>1.121275609665177</v>
+        <v>0.9947392417087666</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6886782400020095</v>
+        <v>0.6309617546279628</v>
       </c>
       <c r="N6" t="n">
-        <v>1.037826819534129</v>
+        <v>1.031752152867228</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7179966984393825</v>
+        <v>0.6578231027933671</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4919244507514</v>
+        <v>139.8420401160402</v>
       </c>
       <c r="Q6" t="n">
-        <v>223.5943563666573</v>
+        <v>223.9444720319461</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9292451639307298</v>
+        <v>0.9443012828011046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6953787525290681</v>
+        <v>0.6834743833347401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7641078983036473</v>
+        <v>0.5731984972081658</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8943394778089655</v>
+        <v>0.9571716077386564</v>
       </c>
       <c r="F7" t="n">
-        <v>0.625439141071419</v>
+        <v>0.8885497834204997</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4731379145912733</v>
+        <v>0.372457578378024</v>
       </c>
       <c r="H7" t="n">
-        <v>2.037003684489992</v>
+        <v>2.116608256107043</v>
       </c>
       <c r="I7" t="n">
-        <v>1.633614377533447</v>
+        <v>1.254524308536306</v>
       </c>
       <c r="J7" t="n">
-        <v>1.197020733714328</v>
+        <v>0.5350517814677196</v>
       </c>
       <c r="K7" t="n">
-        <v>1.415317555623887</v>
+        <v>0.8947880450020128</v>
       </c>
       <c r="L7" t="n">
-        <v>1.107578629330338</v>
+        <v>0.760942014413457</v>
       </c>
       <c r="M7" t="n">
-        <v>0.687850212321893</v>
+        <v>0.6102930266503329</v>
       </c>
       <c r="N7" t="n">
-        <v>1.037735912570277</v>
+        <v>1.029705982506077</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7171334199066699</v>
+        <v>0.6362744642755644</v>
       </c>
       <c r="P7" t="n">
-        <v>139.4967367176019</v>
+        <v>139.9752642623934</v>
       </c>
       <c r="Q7" t="n">
-        <v>223.5991686335078</v>
+        <v>224.0776961782992</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9292829114917325</v>
+        <v>0.9425140459853641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.69317528636284</v>
+        <v>0.6805703115951535</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7673759508684277</v>
+        <v>0.5096533921080226</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9655660183548638</v>
+        <v>0.9578527306930218</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6224782713326988</v>
+        <v>0.8774474049788219</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4728854964770367</v>
+        <v>0.3844088391943493</v>
       </c>
       <c r="H8" t="n">
-        <v>2.051738272889588</v>
+        <v>2.13602779720168</v>
       </c>
       <c r="I8" t="n">
-        <v>1.610982260485151</v>
+        <v>1.441306403995576</v>
       </c>
       <c r="J8" t="n">
-        <v>1.242028319114384</v>
+        <v>0.5265425652471357</v>
       </c>
       <c r="K8" t="n">
-        <v>1.426505512991118</v>
+        <v>0.983924484621356</v>
       </c>
       <c r="L8" t="n">
-        <v>1.095028763379755</v>
+        <v>0.7245677630330192</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6876667044993794</v>
+        <v>0.6200071283415614</v>
       </c>
       <c r="N8" t="n">
-        <v>1.037715780537743</v>
+        <v>1.030659175474472</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7169420997762382</v>
+        <v>0.6464021153867511</v>
       </c>
       <c r="P8" t="n">
-        <v>139.4978039982517</v>
+        <v>139.912097214736</v>
       </c>
       <c r="Q8" t="n">
-        <v>223.6002359141576</v>
+        <v>224.0145291306418</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9292226298095939</v>
+        <v>0.9401611954998844</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6910905030448133</v>
+        <v>0.6770479611848401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7701752481572323</v>
+        <v>0.4455530521337409</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.030969255450277</v>
+        <v>0.9583761289211308</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6195749355076352</v>
+        <v>0.866120673350424</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4732886003630691</v>
+        <v>0.4001423612246324</v>
       </c>
       <c r="H9" t="n">
-        <v>2.065679228536777</v>
+        <v>2.159581770614378</v>
       </c>
       <c r="I9" t="n">
-        <v>1.591596396078941</v>
+        <v>1.629720535991731</v>
       </c>
       <c r="J9" t="n">
-        <v>1.283356197127988</v>
+        <v>0.5200037917938179</v>
       </c>
       <c r="K9" t="n">
-        <v>1.437476072421268</v>
+        <v>1.074862163892774</v>
       </c>
       <c r="L9" t="n">
-        <v>1.083557898695259</v>
+        <v>0.6909648966888556</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6879597374578464</v>
+        <v>0.6325680684516349</v>
       </c>
       <c r="N9" t="n">
-        <v>1.037747930768216</v>
+        <v>1.031914029066728</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7172476077544092</v>
+        <v>0.6594978007220411</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4960998555923</v>
+        <v>139.8318697842621</v>
       </c>
       <c r="Q9" t="n">
-        <v>223.5985317714981</v>
+        <v>223.9343017001679</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9290917063982551</v>
+        <v>0.9373156232391298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6891316376431449</v>
+        <v>0.6730041514259022</v>
       </c>
       <c r="D10" t="n">
-        <v>0.772576550028412</v>
+        <v>0.3814875901847792</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.090868135450811</v>
+        <v>0.9585342894956631</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6167669525963809</v>
+        <v>0.8545161615168169</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4741640858175379</v>
+        <v>0.4191707160349539</v>
       </c>
       <c r="H10" t="n">
-        <v>2.078778170497479</v>
+        <v>2.186622745092428</v>
       </c>
       <c r="I10" t="n">
-        <v>1.574966753825777</v>
+        <v>1.818032148830124</v>
       </c>
       <c r="J10" t="n">
-        <v>1.321205907872461</v>
+        <v>0.5180279040078586</v>
       </c>
       <c r="K10" t="n">
-        <v>1.448086330849119</v>
+        <v>1.168030026418991</v>
       </c>
       <c r="L10" t="n">
-        <v>1.073089192201818</v>
+        <v>0.6600553509580308</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6885957346785834</v>
+        <v>0.6474339472370552</v>
       </c>
       <c r="N10" t="n">
-        <v>1.037817756587597</v>
+        <v>1.033431667605798</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7179106806935286</v>
+        <v>0.6749965507439681</v>
       </c>
       <c r="P10" t="n">
-        <v>139.4924036891603</v>
+        <v>139.7389540104045</v>
       </c>
       <c r="Q10" t="n">
-        <v>223.5948356050661</v>
+        <v>223.8413859263104</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9289114193935486</v>
+        <v>0.9340550445674747</v>
       </c>
       <c r="C11" t="n">
-        <v>0.687301612721571</v>
+        <v>0.6685499983507529</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7746399545290912</v>
+        <v>0.3181980075705199</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.145609743499624</v>
+        <v>0.9581622439736354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6140806678850323</v>
+        <v>0.8426411642500742</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4753696658481556</v>
+        <v>0.4409742206258961</v>
       </c>
       <c r="H11" t="n">
-        <v>2.091015555574534</v>
+        <v>2.21640768721544</v>
       </c>
       <c r="I11" t="n">
-        <v>1.560677139062347</v>
+        <v>2.004063171090677</v>
       </c>
       <c r="J11" t="n">
-        <v>1.35579677218105</v>
+        <v>0.5226758398475529</v>
       </c>
       <c r="K11" t="n">
-        <v>1.458236739843404</v>
+        <v>1.263369505469115</v>
       </c>
       <c r="L11" t="n">
-        <v>1.063547551330148</v>
+        <v>0.6318767928978746</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6894705692400188</v>
+        <v>0.6640588984614965</v>
       </c>
       <c r="N11" t="n">
-        <v>1.037913909656774</v>
+        <v>1.035170642897347</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7188227587734015</v>
+        <v>0.6923292605604272</v>
       </c>
       <c r="P11" t="n">
-        <v>139.4873250674628</v>
+        <v>139.6375377237491</v>
       </c>
       <c r="Q11" t="n">
-        <v>223.5897569833686</v>
+        <v>223.739969639655</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9286983537794591</v>
+        <v>0.9304728481841289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6856001435892511</v>
+        <v>0.6638154730450276</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7764159498465042</v>
+        <v>0.2565529783882562</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.195544843521804</v>
+        <v>0.9571659447247988</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6115327879898702</v>
+        <v>0.8305815259105677</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4767944365906493</v>
+        <v>0.4649283843358273</v>
       </c>
       <c r="H12" t="n">
-        <v>2.102393287496902</v>
+        <v>2.248067479735309</v>
       </c>
       <c r="I12" t="n">
-        <v>1.54837790791347</v>
+        <v>2.185260254755349</v>
       </c>
       <c r="J12" t="n">
-        <v>1.387350435485255</v>
+        <v>0.5351225290604502</v>
       </c>
       <c r="K12" t="n">
-        <v>1.467864171699363</v>
+        <v>1.360191391907899</v>
       </c>
       <c r="L12" t="n">
-        <v>1.054862134900824</v>
+        <v>0.606465460362917</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6905030315578993</v>
+        <v>0.6818565716745915</v>
       </c>
       <c r="N12" t="n">
-        <v>1.038027544650955</v>
+        <v>1.037081147635131</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7198991751496459</v>
+        <v>0.7108846175684662</v>
       </c>
       <c r="P12" t="n">
-        <v>139.4813396630468</v>
+        <v>139.5317437948738</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.5837715789526</v>
+        <v>223.6341757107796</v>
       </c>
     </row>
     <row r="13">
@@ -1127,162 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9284652981359675</v>
+        <v>0.9266805904912759</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6840247246993765</v>
+        <v>0.658946846639081</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7779480261398345</v>
+        <v>0.1974862199196076</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.24102588342598</v>
+        <v>0.9555367878310037</v>
       </c>
       <c r="F13" t="n">
-        <v>0.609133869747722</v>
+        <v>0.8185014749353468</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4783528807518006</v>
+        <v>0.4902872289896759</v>
       </c>
       <c r="H13" t="n">
-        <v>2.112928120867631</v>
+        <v>2.280624006929838</v>
       </c>
       <c r="I13" t="n">
-        <v>1.537767879674863</v>
+        <v>2.358878866312825</v>
       </c>
       <c r="J13" t="n">
-        <v>1.416089607314771</v>
+        <v>0.5554754597284142</v>
       </c>
       <c r="K13" t="n">
-        <v>1.476928736299974</v>
+        <v>1.45717716302062</v>
       </c>
       <c r="L13" t="n">
-        <v>1.046969470015737</v>
+        <v>0.583916388234186</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6916305955868354</v>
+        <v>0.7002051335070858</v>
       </c>
       <c r="N13" t="n">
-        <v>1.038151840994151</v>
+        <v>1.03910368507132</v>
       </c>
       <c r="O13" t="n">
-        <v>0.721074741913673</v>
+        <v>0.7300143156649291</v>
       </c>
       <c r="P13" t="n">
-        <v>139.4748131492166</v>
+        <v>139.4255277560064</v>
       </c>
       <c r="Q13" t="n">
-        <v>223.5772450651224</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>model_12_5_12</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9282219765860604</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6825710055896972</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7792721167122613</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-1.282391829770486</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.6068884382270487</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4799799730764219</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.122649147247817</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.52859820684259</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.44222847842216</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.48541333519867</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.039806005756827</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.6928058696896425</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.038281612487434</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.7223000498681895</v>
-      </c>
-      <c r="P14" t="n">
-        <v>139.4680217974162</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>223.570453713322</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>model_12_5_13</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9279756246186874</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6812335438811594</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7804187700565872</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-1.319973218659832</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.6047967397795062</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.4816273298165912</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.131592759851254</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.52065733313013</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.46597591241132</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.493317037529839</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.033304114614348</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6939937534420545</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.038413000203367</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.7235385042912</v>
-      </c>
-      <c r="P15" t="n">
-        <v>139.4611692772792</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>223.563601193185</v>
+        <v>223.5279596719123</v>
       </c>
     </row>
   </sheetData>
